--- a/biology/Médecine/Faisceau_médial_du_plexus_brachial/Faisceau_médial_du_plexus_brachial.xlsx
+++ b/biology/Médecine/Faisceau_médial_du_plexus_brachial/Faisceau_médial_du_plexus_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faisceau_m%C3%A9dial_du_plexus_brachial</t>
+          <t>Faisceau_médial_du_plexus_brachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisceau médial du plexus brachial (ou tronc secondaire antéro-interne du plexus brachial) est le tronc nerveux du plexus brachial formé par les divisions antérieures du tronc inférieur du plexus brachial. Il se compose des contributions des racines C8 et T1.
 Il donne naissance aux nerfs suivants :
